--- a/medicine/Mort/Monument_aux_morts_de_Constantine/Monument_aux_morts_de_Constantine.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_Constantine/Monument_aux_morts_de_Constantine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts de Constantine a été réalisé en hommage aux enfants de la ville morts durant la Première Guerre mondiale (1914-1918).
 Plus de 800 soldats, musulmans, chrétiens et juifs originaires de la ville de Constantine ont vu leurs noms gravés sur des plaques en bronze.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décidé par la Mairie de Constantine présidée à l'époque par Émile Morinaud, la conception de l'ouvrage a été confiée au cabinet d'architecture Marcel Dumoulin et Maurice de La Chapelle dont les bureaux se trouvaient rue Georges Clemenceau (actuelle rue 
 Larbi Ben M'Hidi).
-Construit d'après un projet de M. Rogué, architecte, la première pierre a été posée le 18 novembre 1918 et la réalisation a nécessité 12 années de travaux[1]. Le monument est inauguré
-lors du Centenaire de l'Algérie française  le 7 mai 1930 par le président de la République française, Gaston Doumergue, en présence du président du Sénat, Paul Doumer, du président de la Chambre des députés, Fernand Bouisson et du maire de Constantine, Émile Morinaud[1].
+Construit d'après un projet de M. Rogué, architecte, la première pierre a été posée le 18 novembre 1918 et la réalisation a nécessité 12 années de travaux. Le monument est inauguré
+lors du Centenaire de l'Algérie française  le 7 mai 1930 par le président de la République française, Gaston Doumergue, en présence du président du Sénat, Paul Doumer, du président de la Chambre des députés, Fernand Bouisson et du maire de Constantine, Émile Morinaud.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Érigé à plus de 695 mètres d'altitude sur une falaise bordant la rive droite du Rhummel, face au "vieux rocher" de la ville de Constantine, surplombant le pont suspendu de Sidi M'Cid, le Monument aux morts bénéficie d'un site exceptionnel.
 Après avoir escaladé les 36 marches en pierre de taille, on arrive devant le monumental arc de triomphe de 21 m de haut inspiré de celui de Trajan à Timgad.
